--- a/Project 3 - AB Test Results/Statistics Python Sheet.xlsx
+++ b/Project 3 - AB Test Results/Statistics Python Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ColinMcLaughlinCrowd\Documents\Data Analyst\Project 3 - AB Test Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A2D7BF-DC09-4355-9C90-28855F1D4540}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2518181B-7F33-4325-AA15-C17C77B310BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{A26C02A4-426A-4034-8BF0-BCC94EED32DD}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
   <si>
     <t>Action</t>
   </si>
@@ -62,14 +62,42 @@
     <t>Random Number</t>
   </si>
   <si>
-    <t>To generate a random number based on set range of numbers or in general.  Can also outline the required number of iterations</t>
+    <t>To generate a random number based on set range of numbers or in general.  Can also outline the required number of iterations and how many numbers to generate.  Example is initially an array of 1000 single random number and the second is 1000 iterations of 2 random numbers</t>
+  </si>
+  <si>
+    <t>Weighted Random</t>
+  </si>
+  <si>
+    <t>numpy.random.randint(low, high=None, size=None, dtype='l')
+np.random.randint(0,2, size = 1000)
+np.random.randint(2, size = (1000,2)</t>
+  </si>
+  <si>
+    <t>This is the same as above except you need to use arrays to specify the possible numbers and the weights for each</t>
+  </si>
+  <si>
+    <t>numpy.random.choice(a, size=None, replace=True, p=None)
+numpy.random.choice([0,1], size = (1000,2), p=[0.5,0.5]</t>
+  </si>
+  <si>
+    <t>Binomial Generator</t>
+  </si>
+  <si>
+    <t>numpy.random.binomial(n, p, size=None)
+numpy.random.binomial(10, 0.5, 100)</t>
+  </si>
+  <si>
+    <t>A much simpler and cleaner way to generate a random binomial outcome (where there are only 2 options like a coin flip).  Example is 100 iterations of flipping a coin ten times</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,6 +115,13 @@
     </font>
     <font>
       <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -132,10 +167,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -168,8 +204,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -485,18 +525,18 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34" style="7" customWidth="1"/>
-    <col min="2" max="2" width="44" style="8" customWidth="1"/>
+    <col min="2" max="2" width="53.42578125" style="8" customWidth="1"/>
     <col min="3" max="3" width="8.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="61.28515625" style="7" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
@@ -514,7 +554,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -524,19 +564,35 @@
       <c r="C2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="5"/>
+      <c r="D2" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="C4" s="10"/>
-      <c r="D4" s="6"/>
+      <c r="D4" s="9" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
@@ -603,6 +659,9 @@
       <c r="B15" s="5"/>
       <c r="C15" s="10"/>
       <c r="D15" s="6"/>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D34" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
